--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang2/02.XuLyBH/XLBH2202_HayHue.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang2/02.XuLyBH/XLBH2202_HayHue.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="66">
   <si>
     <t>STT</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>Sao Việt</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Thể</t>
   </si>
 </sst>
 </file>
@@ -625,6 +631,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -642,30 +672,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -976,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1009,43 +1015,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1090,58 +1096,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1166,23 +1172,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1192,7 +1198,9 @@
       <c r="B6" s="63">
         <v>44614</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="63">
+        <v>44614</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>45</v>
       </c>
@@ -1208,15 +1216,25 @@
       <c r="J6" s="1"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1247,7 +1265,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1276,7 +1294,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1305,7 +1323,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1334,7 +1352,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1363,7 +1381,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1392,7 +1410,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1423,7 +1441,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1452,7 +1470,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1481,7 +1499,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1510,7 +1528,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1629,7 +1647,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2098,7 +2116,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2162,7 +2180,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2741,13 +2759,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2759,6 +2770,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2802,43 +2820,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -2883,58 +2901,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -2959,23 +2977,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="74"/>
       <c r="P5" s="80"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3001,7 +3019,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3032,7 +3050,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3061,7 +3079,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3090,7 +3108,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3119,7 +3137,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3148,7 +3166,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3177,7 +3195,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3208,7 +3226,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3237,7 +3255,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3266,7 +3284,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3295,7 +3313,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4526,13 +4544,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4544,6 +4555,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
